--- a/src/main/resources/xlsx-templates/mas-report-3a.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-3a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3577CB70-10EB-48E4-B349-27F7CC412AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E49D68-5B58-4AF9-8FE1-B6CF4BEE5DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3A Summary" sheetId="5" r:id="rId1"/>
@@ -106,6 +106,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -385,9 +388,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +645,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,35 +654,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -690,19 +693,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -713,13 +712,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
